--- a/docs/GestaoProjetos/CheckList.xlsx
+++ b/docs/GestaoProjetos/CheckList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -151,6 +151,9 @@
     <t>TEMPO ATUALIZADO (SPRINT 3 / SPRINT 4)</t>
   </si>
   <si>
+    <t>ANALISAR E FAZER UMA RELAÇÃO ENTRE O TEMPO DA SPRINT 3 E O TEMPO DA SPRINT 4, TOMAR DECISÕES BASEADAS NESSAS ANALISES</t>
+  </si>
+  <si>
     <t>O TEMPO EM RELAÇÃO PLANEJADO X REALIZADO FOI FEITO DE MANEIRA TRANQUILA SEM MUITOS PROBLEMAS SEGUINDO O MESMO PADRÃO DAS SPRINTS ANTERIORES</t>
   </si>
   <si>
@@ -187,14 +190,122 @@
     <t>CATÁLOGO DE SERVIÇOS SERIA TODOS OS SERVIÇOS ATIVOS QUE NOS ESTAMOS PRESTANDO PARA O CLIENTE</t>
   </si>
   <si>
+    <t>SPRINT 5</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE ESCOPO</t>
+  </si>
+  <si>
+    <t>DEFINIR O CONTEUDO DA SPRINT ALÉM DE CONTROLAR E REGULAR AS ATIVIDADES ATIVAS, QUAIS SÃO OS RESPONSÁVEIS POR ELAS, PRAZO DE ENTREGA</t>
+  </si>
+  <si>
+    <t>BACKLOG DA SPRINT 5</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE TEMPO PLANEJADO X REALIZADO(SPRINT 4 E SPRINT 5)</t>
+  </si>
+  <si>
+    <t>ANALISAR E FAZER UMA RELAÇÃO ENTRE O TEMPO DA SPRINT 4 E O TEMPO DA SPRINT 5, TOMAR DECISÕES BASEADAS NESSAS ANALISES</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE CUSTO PLANEJADO X REALIZADO(SPRINT 4 E SPRINT 5)</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE RISCO</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE AQUISIÇÕES PROJECT</t>
+  </si>
+  <si>
+    <t>DEFINIR O QUE ADQUIRIR, ESPECIFIAR O PRODUTO QUE IRÁ ADQUIRIR, ESTABELECER CRITÉRIOS DE AVALIÇÃO E SOLICITAR PROPOSTAS</t>
+  </si>
+  <si>
+    <t>MODEL CANVAS</t>
+  </si>
+  <si>
+    <t>SERIA UM QUADRO DE MODELO DE NEGÓCIO E DEVE-SE ESBOÇAR OS MODELOS DE NEGÓCIO QUE NOSSO PROJETO ESTÁ UTILIZANDO</t>
+  </si>
+  <si>
+    <t>WIDGET PLUGAVEL E SESSÕES NO WEBSOCKET</t>
+  </si>
+  <si>
+    <t>EXPANDIR O PROJETO, PODER COLOCAR O WIDGET DO CHAT EM OUTROS SITES E MAIS CANAIS DE CONVERSA</t>
+  </si>
+  <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento</t>
+  </si>
+  <si>
+    <t>APERFEIÇOAMENTO DECLARAÇÃO DO ESCOPO Total</t>
+  </si>
+  <si>
+    <t>APERFEIÇOAMENTO GERENCIAMENTO DE CRONOGRAMA Total</t>
+  </si>
+  <si>
+    <t>APERFEIÇOAMENTO TAP Total</t>
+  </si>
+  <si>
+    <t>CUSTO ATUALIZADO Total</t>
+  </si>
+  <si>
+    <t>CUSTO ATUALIZADO (SPRINT 3 / SPRINT 4) Total</t>
+  </si>
+  <si>
+    <t>DESIGN THINKING Total</t>
+  </si>
+  <si>
+    <t>FRONT DISPARO DE ATIVIDADES Total</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE CUSTO Total</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DE VALOR AGREGADO Total</t>
+  </si>
+  <si>
+    <t>ITIL  Total</t>
+  </si>
+  <si>
+    <t>MATRIZ DE COMUNICAÇÕES Total</t>
+  </si>
+  <si>
+    <t>MATRIZ RACI Total</t>
+  </si>
+  <si>
+    <t>PLANO CUSTO Total</t>
+  </si>
+  <si>
+    <t>PREVISÕES DE ORÇAMENTO Total</t>
+  </si>
+  <si>
+    <t>SISTEMA DE CUSTEIO Total</t>
+  </si>
+  <si>
+    <t>SPRING REST - APERFEIÇOAMENTO DO BANCO DE DADOS Total</t>
+  </si>
+  <si>
+    <t>SPRINT 3 Total</t>
+  </si>
+  <si>
+    <t>SPRINT 4 Total</t>
+  </si>
+  <si>
+    <t>TEMPO ATUALIZADO Total</t>
+  </si>
+  <si>
+    <t>TEMPO ATUALIZADO (SPRINT 3 / SPRINT 4) Total</t>
+  </si>
+  <si>
+    <t>WIDGET - INTERFACE DO CHATBOT Total</t>
+  </si>
+  <si>
+    <t>Total geral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -231,6 +342,17 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -315,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -392,6 +514,30 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -474,6 +620,7 @@
         <s v="FUNCIONA COMO UM CHECKLIST ONDE SE VISA O CONTROLE DE ATIVIDADES A SEREM DESENVOLVIDAS, PORÉM EXIGE MAIS INFORMAÇÕES COMO: RESPONSÁVEL, CONTRIBUINTE DATA STATUS ETC."/>
         <s v="DETERMINAR AS ATIVIDADES QUE SERÃO FEITAS NA SPRINT VIGENTE E ANOTAR AS INFORMAÇÕES COMPLETAS(WHO, WHERE, HOW, WHAT, WHEN)"/>
         <s v="IMPLEMENTAÇÃO NO FRONT DE DISPARO DE ATIVIDADES PARA OS FUNCIONARIOS (DIRETORES E ATENDENTES) "/>
+        <s v="ANALISAR E FAZER UMA RELAÇÃO ENTRE O TEMPO DA SPRINT 3 E O TEMPO DA SPRINT 4, TOMAR DECISÕES BASEADAS NESSAS ANALISES"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sim" numFmtId="0">
@@ -533,6 +680,7 @@
       <items>
         <item x="10"/>
         <item x="11"/>
+        <item x="17"/>
         <item x="13"/>
         <item x="4"/>
         <item x="3"/>
@@ -1499,14 +1647,14 @@
         <v>42</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1532,7 +1680,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>31</v>
@@ -1542,7 +1690,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1578,7 +1726,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1614,7 +1762,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1650,7 +1798,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1676,10 +1824,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>8</v>
@@ -1710,10 +1858,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>8</v>
@@ -1744,10 +1892,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>8</v>
@@ -1777,11 +1925,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1805,9 +1955,15 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1833,9 +1989,15 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1861,9 +2023,15 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1889,9 +2057,15 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1917,9 +2091,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1945,9 +2125,15 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1973,9 +2159,15 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2001,9 +2193,15 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2029,9 +2227,15 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2057,9 +2261,15 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>8</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -28965,9 +29175,10 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <conditionalFormatting sqref="A14:A17 A22:A25">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -28999,7 +29210,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3"/>
